--- a/1 Informatics/Labs/Lab5/lab5.xlsx
+++ b/1 Informatics/Labs/Lab5/lab5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavdyadev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavdyadev/ITMO/1 Informatics/Labs/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0B42C-423D-FB4F-B694-6D70FC377601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CDC56-5648-914D-A23F-D8537F0581B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{72B23FCD-9113-C040-A15A-F7D9FE387BE2}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -631,13 +631,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -996,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72F9C8E-7FB9-C849-826F-1571CC7BB7BB}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="132" zoomScaleNormal="132" zoomScaleSheetLayoutView="84" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="Z4" s="4"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2394,12 +2393,12 @@
         <f>C4</f>
         <v>6494</v>
       </c>
-      <c r="AJ19" s="11" t="s">
+      <c r="AJ19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
     </row>
     <row r="20" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -2494,10 +2493,10 @@
         <f>C5</f>
         <v>24271</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
     </row>
     <row r="21" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E21" s="3" t="s">
@@ -2575,10 +2574,10 @@
       <c r="AG21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
     </row>
     <row r="22" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
@@ -2677,10 +2676,10 @@
       <c r="AH22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
     </row>
     <row r="23" spans="4:39" x14ac:dyDescent="0.2">
       <c r="G23" s="4" t="str">
@@ -2761,42 +2760,42 @@
       </c>
     </row>
     <row r="24" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G24" s="12" t="s">
+      <c r="G24" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="4">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" t="s">
         <v>71</v>
       </c>
       <c r="K24" s="4">
         <f>MOD(COUNTIF(Q22:Y22,1)+1,2)</f>
         <v>1</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" t="s">
         <v>72</v>
       </c>
       <c r="N24" s="4">
         <f>T18</f>
         <v>1</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" t="s">
         <v>73</v>
       </c>
       <c r="Q24" s="4">
         <f>IF(COUNTIF(G22:Y22,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="S24" t="s">
         <v>74</v>
       </c>
       <c r="T24" s="4">
         <f>G22</f>
         <v>0</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" t="s">
         <v>75</v>
       </c>
       <c r="W24" s="4">
@@ -2963,12 +2962,12 @@
         <f>C5</f>
         <v>24271</v>
       </c>
-      <c r="AJ28" s="11" t="s">
+      <c r="AJ28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
     </row>
     <row r="29" spans="4:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -3063,10 +3062,10 @@
         <f>C6</f>
         <v>30765</v>
       </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
     </row>
     <row r="30" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E30" s="3" t="s">
@@ -3144,10 +3143,10 @@
       <c r="AG30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
     </row>
     <row r="31" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
@@ -3240,10 +3239,10 @@
       <c r="AH31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
     </row>
     <row r="32" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
@@ -3337,42 +3336,42 @@
       </c>
     </row>
     <row r="34" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G34" s="12" t="s">
+      <c r="G34" t="s">
         <v>70</v>
       </c>
       <c r="H34" s="4">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" t="s">
         <v>71</v>
       </c>
       <c r="K34" s="4">
         <f>MOD(COUNTIF(Q31:Y31,1)+1,2)</f>
         <v>1</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" t="s">
         <v>72</v>
       </c>
       <c r="N34" s="4">
         <f>T27</f>
         <v>1</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" t="s">
         <v>73</v>
       </c>
       <c r="Q34" s="4">
         <f>IF(COUNTIF(G31:Y31,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" t="s">
         <v>74</v>
       </c>
       <c r="T34" s="4">
         <f>G31</f>
         <v>1</v>
       </c>
-      <c r="V34" s="12" t="s">
+      <c r="V34" t="s">
         <v>75</v>
       </c>
       <c r="W34" s="4">
@@ -3543,12 +3542,12 @@
         <f>C5</f>
         <v>24271</v>
       </c>
-      <c r="AJ38" s="11" t="s">
+      <c r="AJ38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
     </row>
     <row r="39" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
@@ -3643,10 +3642,10 @@
         <f>C10</f>
         <v>-6494</v>
       </c>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
     </row>
     <row r="40" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
@@ -3724,10 +3723,10 @@
       <c r="AG40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="11"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
@@ -3827,10 +3826,10 @@
       <c r="AH41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="11"/>
-      <c r="AM41" s="11"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
     </row>
     <row r="42" spans="4:39" x14ac:dyDescent="0.2">
       <c r="G42" s="4" t="str">
@@ -3911,42 +3910,42 @@
       </c>
     </row>
     <row r="44" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G44" s="12" t="s">
+      <c r="G44" t="s">
         <v>70</v>
       </c>
       <c r="H44" s="4">
         <f>F37</f>
         <v>1</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" t="s">
         <v>71</v>
       </c>
       <c r="K44" s="4">
         <f>MOD(COUNTIF(Q41:Y41,1)+1,2)</f>
         <v>1</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="M44" t="s">
         <v>72</v>
       </c>
       <c r="N44" s="4">
         <f>T37</f>
         <v>1</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" t="s">
         <v>73</v>
       </c>
       <c r="Q44" s="4">
         <f>IF(COUNTIF(G41:Y41,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="S44" t="s">
         <v>74</v>
       </c>
       <c r="T44" s="4">
         <f>G41</f>
         <v>0</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" t="s">
         <v>75</v>
       </c>
       <c r="W44" s="4">
@@ -4114,12 +4113,12 @@
         <f>C10</f>
         <v>-6494</v>
       </c>
-      <c r="AJ48" s="11" t="s">
+      <c r="AJ48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
     </row>
     <row r="49" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
@@ -4214,10 +4213,10 @@
         <f>C11</f>
         <v>-24271</v>
       </c>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
     </row>
     <row r="50" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E50" s="3" t="s">
@@ -4295,10 +4294,10 @@
       <c r="AG50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
     </row>
     <row r="51" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
@@ -4391,10 +4390,10 @@
       <c r="AH51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
     </row>
     <row r="52" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
@@ -4488,42 +4487,42 @@
       </c>
     </row>
     <row r="54" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G54" s="12" t="s">
+      <c r="G54" t="s">
         <v>70</v>
       </c>
       <c r="H54" s="4">
         <f>F47</f>
         <v>1</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" t="s">
         <v>71</v>
       </c>
       <c r="K54" s="4">
         <f>MOD(COUNTIF(Q51:Y51,1)+1,2)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="12" t="s">
+      <c r="M54" t="s">
         <v>72</v>
       </c>
       <c r="N54" s="4">
         <f>T47</f>
         <v>0</v>
       </c>
-      <c r="P54" s="12" t="s">
+      <c r="P54" t="s">
         <v>73</v>
       </c>
       <c r="Q54" s="4">
         <f>IF(COUNTIF(G51:Y51,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S54" s="12" t="s">
+      <c r="S54" t="s">
         <v>74</v>
       </c>
       <c r="T54" s="4">
         <f>G51</f>
         <v>1</v>
       </c>
-      <c r="V54" s="12" t="s">
+      <c r="V54" t="s">
         <v>75</v>
       </c>
       <c r="W54" s="4">
@@ -4690,12 +4689,12 @@
         <f>C11</f>
         <v>-24271</v>
       </c>
-      <c r="AJ58" s="11" t="s">
+      <c r="AJ58" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
     </row>
     <row r="59" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -4790,10 +4789,10 @@
         <f>C12</f>
         <v>-30765</v>
       </c>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
     </row>
     <row r="60" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E60" s="3" t="s">
@@ -4871,10 +4870,10 @@
       <c r="AG60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
     </row>
     <row r="61" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
@@ -4974,10 +4973,10 @@
       <c r="AH61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="11"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
     </row>
     <row r="62" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="G62" s="4" t="str">
@@ -5061,42 +5060,42 @@
       <c r="AB62" s="8"/>
     </row>
     <row r="64" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G64" s="12" t="s">
+      <c r="G64" t="s">
         <v>70</v>
       </c>
       <c r="H64" s="4">
         <f>F57</f>
         <v>1</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" t="s">
         <v>71</v>
       </c>
       <c r="K64" s="4">
         <f>MOD(COUNTIF(Q61:Y61,1)+1,2)</f>
         <v>0</v>
       </c>
-      <c r="M64" s="12" t="s">
+      <c r="M64" t="s">
         <v>72</v>
       </c>
       <c r="N64" s="4">
         <f>T57</f>
         <v>0</v>
       </c>
-      <c r="P64" s="12" t="s">
+      <c r="P64" t="s">
         <v>73</v>
       </c>
       <c r="Q64" s="4">
         <f>IF(COUNTIF(G61:Y61,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S64" s="12" t="s">
+      <c r="S64" t="s">
         <v>74</v>
       </c>
       <c r="T64" s="4">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="V64" s="12" t="s">
+      <c r="V64" t="s">
         <v>75</v>
       </c>
       <c r="W64" s="4">
@@ -5263,12 +5262,12 @@
         <f>C4</f>
         <v>6494</v>
       </c>
-      <c r="AJ68" s="11" t="s">
+      <c r="AJ68" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AK68" s="11"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
     </row>
     <row r="69" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
@@ -5363,10 +5362,10 @@
         <f>C11</f>
         <v>-24271</v>
       </c>
-      <c r="AJ69" s="11"/>
-      <c r="AK69" s="11"/>
-      <c r="AL69" s="11"/>
-      <c r="AM69" s="11"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
     </row>
     <row r="70" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E70" s="3" t="s">
@@ -5444,10 +5443,10 @@
       <c r="AG70" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ70" s="11"/>
-      <c r="AK70" s="11"/>
-      <c r="AL70" s="11"/>
-      <c r="AM70" s="11"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
     </row>
     <row r="71" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F71" s="1" t="s">
@@ -5540,10 +5539,10 @@
       <c r="AH71" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ71" s="11"/>
-      <c r="AK71" s="11"/>
-      <c r="AL71" s="11"/>
-      <c r="AM71" s="11"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
     </row>
     <row r="72" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F72" s="1" t="s">
@@ -5637,42 +5636,42 @@
       </c>
     </row>
     <row r="74" spans="4:39" x14ac:dyDescent="0.2">
-      <c r="G74" s="12" t="s">
+      <c r="G74" t="s">
         <v>70</v>
       </c>
       <c r="H74" s="4">
         <f>F67</f>
         <v>0</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" t="s">
         <v>71</v>
       </c>
       <c r="K74" s="4">
         <f>MOD(COUNTIF(Q71:Y71,1)+1,2)</f>
         <v>0</v>
       </c>
-      <c r="M74" s="12" t="s">
+      <c r="M74" t="s">
         <v>72</v>
       </c>
       <c r="N74" s="4">
         <f>T67</f>
         <v>0</v>
       </c>
-      <c r="P74" s="12" t="s">
+      <c r="P74" t="s">
         <v>73</v>
       </c>
       <c r="Q74" s="4">
         <f>IF(COUNTIF(G71:Y71,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S74" s="12" t="s">
+      <c r="S74" t="s">
         <v>74</v>
       </c>
       <c r="T74" s="4">
         <f>G71</f>
         <v>1</v>
       </c>
-      <c r="V74" s="12" t="s">
+      <c r="V74" t="s">
         <v>75</v>
       </c>
       <c r="W74" s="4">
@@ -5839,12 +5838,12 @@
         <f>C14</f>
         <v>-17777</v>
       </c>
-      <c r="AJ78" s="11" t="s">
+      <c r="AJ78" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK78" s="11"/>
-      <c r="AL78" s="11"/>
-      <c r="AM78" s="11"/>
+      <c r="AK78" s="10"/>
+      <c r="AL78" s="10"/>
+      <c r="AM78" s="10"/>
     </row>
     <row r="79" spans="4:39" ht="18" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
@@ -5939,10 +5938,10 @@
         <f>C6</f>
         <v>30765</v>
       </c>
-      <c r="AJ79" s="11"/>
-      <c r="AK79" s="11"/>
-      <c r="AL79" s="11"/>
-      <c r="AM79" s="11"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="10"/>
     </row>
     <row r="80" spans="4:39" x14ac:dyDescent="0.2">
       <c r="E80" s="3" t="s">
@@ -6020,10 +6019,10 @@
       <c r="AG80" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ80" s="11"/>
-      <c r="AK80" s="11"/>
-      <c r="AL80" s="11"/>
-      <c r="AM80" s="11"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
     </row>
     <row r="81" spans="6:39" ht="18" x14ac:dyDescent="0.25">
       <c r="F81" s="1" t="s">
@@ -6123,10 +6122,10 @@
       <c r="AH81" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ81" s="11"/>
-      <c r="AK81" s="11"/>
-      <c r="AL81" s="11"/>
-      <c r="AM81" s="11"/>
+      <c r="AJ81" s="10"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
     </row>
     <row r="82" spans="6:39" ht="18" x14ac:dyDescent="0.25">
       <c r="G82" s="4" t="str">
@@ -6210,42 +6209,42 @@
       <c r="AB82" s="8"/>
     </row>
     <row r="84" spans="6:39" x14ac:dyDescent="0.2">
-      <c r="G84" s="12" t="s">
+      <c r="G84" t="s">
         <v>70</v>
       </c>
       <c r="H84" s="4">
         <f>F77</f>
         <v>1</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" t="s">
         <v>71</v>
       </c>
       <c r="K84" s="4">
         <f>MOD(COUNTIF(Q81:Y81,1)+1,2)</f>
         <v>0</v>
       </c>
-      <c r="M84" s="12" t="s">
+      <c r="M84" t="s">
         <v>72</v>
       </c>
       <c r="N84" s="4">
         <f>T77</f>
         <v>1</v>
       </c>
-      <c r="P84" s="12" t="s">
+      <c r="P84" t="s">
         <v>73</v>
       </c>
       <c r="Q84" s="4">
         <f>IF(COUNTIF(G81:Y81,1)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S84" s="12" t="s">
+      <c r="S84" t="s">
         <v>74</v>
       </c>
       <c r="T84" s="4">
         <f>G81</f>
         <v>0</v>
       </c>
-      <c r="V84" s="12" t="s">
+      <c r="V84" t="s">
         <v>75</v>
       </c>
       <c r="W84" s="4">
@@ -6255,14 +6254,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AJ38:AM41"/>
     <mergeCell ref="AJ68:AM71"/>
     <mergeCell ref="AJ78:AM81"/>
     <mergeCell ref="AJ48:AM51"/>
     <mergeCell ref="AJ58:AM61"/>
     <mergeCell ref="AJ19:AM22"/>
     <mergeCell ref="AJ28:AM31"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AJ38:AM41"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:Y7">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
